--- a/Student Sheet.xlsx
+++ b/Student Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\C# Repos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DE54B6-9E08-4A5B-ADBE-C2FD8A9B96A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDA865C-07F8-40BE-B7A2-B1D6D189AF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Asja" sheetId="47" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="255">
   <si>
     <t>Datum</t>
   </si>
@@ -821,6 +821,9 @@
   </si>
   <si>
     <t>Utorak u 6</t>
+  </si>
+  <si>
+    <t>odradili drzave dodavanje</t>
   </si>
 </sst>
 </file>
@@ -8480,8 +8483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6315495-760E-4CF1-9392-387D44B709CA}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8555,12 +8558,22 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
+      <c r="A4" s="31">
+        <v>45644</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="46"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
@@ -11712,7 +11725,7 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>

--- a/Student Sheet.xlsx
+++ b/Student Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\C# Repos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDA865C-07F8-40BE-B7A2-B1D6D189AF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9EDB9D-2D0E-4D9A-A13F-AD4F1598B56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Asja" sheetId="47" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="Emir" sheetId="45" r:id="rId3"/>
     <sheet name="Selma Mehmedćehajić " sheetId="44" r:id="rId4"/>
     <sheet name="Jasmin Jamakovic" sheetId="43" r:id="rId5"/>
-    <sheet name="Amar" sheetId="42" r:id="rId6"/>
-    <sheet name="Emina Salihovic" sheetId="36" r:id="rId7"/>
+    <sheet name="Emina Salihovic" sheetId="36" r:id="rId6"/>
+    <sheet name="Amar" sheetId="42" r:id="rId7"/>
     <sheet name="Imad Mahovic" sheetId="18" r:id="rId8"/>
     <sheet name="Amna Spahalic" sheetId="26" r:id="rId9"/>
     <sheet name="Kerim" sheetId="34" r:id="rId10"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="282">
   <si>
     <t>Datum</t>
   </si>
@@ -824,6 +824,87 @@
   </si>
   <si>
     <t>odradili drzave dodavanje</t>
+  </si>
+  <si>
+    <t>odradili gradove add i edit</t>
+  </si>
+  <si>
+    <t>odradili edit prostorija</t>
+  </si>
+  <si>
+    <t>odradili gradovi edit</t>
+  </si>
+  <si>
+    <t>Pon u 2</t>
+  </si>
+  <si>
+    <t>odradili gradove add</t>
+  </si>
+  <si>
+    <t>odradili prostorije dodavanje i pretraga</t>
+  </si>
+  <si>
+    <t>iduci multithr</t>
+  </si>
+  <si>
+    <t>odradili prostorije ispis i custom</t>
+  </si>
+  <si>
+    <t>Cet u 3</t>
+  </si>
+  <si>
+    <t>super cura zna</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> odradili prostorije nova forma </t>
+  </si>
+  <si>
+    <t>odradili prostorije nova forma i exists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">odradili prostorije edit </t>
+  </si>
+  <si>
+    <t>kolegica super zna uraditi ce edit za gradove</t>
+  </si>
+  <si>
+    <t>Uto u 5:10</t>
+  </si>
+  <si>
+    <t>odaradili gradove multrh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">odradili gradove dodatna exists </t>
+  </si>
+  <si>
+    <t>odradili gradove mulitrh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pon u 11 </t>
+  </si>
+  <si>
+    <t>gradovi speedrun do nove forme</t>
+  </si>
+  <si>
+    <t>odradili prostorije pretragu</t>
+  </si>
+  <si>
+    <t>odradili edit prostorije</t>
+  </si>
+  <si>
+    <t>prostorije edit</t>
+  </si>
+  <si>
+    <t>Uto u 3:10</t>
+  </si>
+  <si>
+    <t>odradili gradovi dodatna exists</t>
+  </si>
+  <si>
+    <t>odradili nastave</t>
+  </si>
+  <si>
+    <t>zavrsili nastave i nestalo nam struje, iduci put duplu pretragu</t>
   </si>
 </sst>
 </file>
@@ -1291,10 +1372,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1584,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54552D2-B679-414E-8DE7-F4A9AF7C87BF}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1639,52 +1720,102 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="13"/>
+      <c r="A3" s="28">
+        <v>45650</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="37">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F3" s="46"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="13"/>
+      <c r="A4" s="31">
+        <v>45653</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="E4" s="37">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F4" s="46"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="71"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="3"/>
+      <c r="A5" s="35">
+        <v>45657</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5" s="39">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="F5" s="69"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="64"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="67"/>
+      <c r="A6" s="5">
+        <v>45660</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="38">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="F6" s="19"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
+      <c r="A7" s="31">
+        <v>45664</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="E7" s="37">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="F7" s="46"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
@@ -5188,7 +5319,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5262,32 +5393,62 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
+      <c r="A4" s="31">
+        <v>45649</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="37">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F4" s="46"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="62"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="57"/>
+      <c r="A5" s="35">
+        <v>45662</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="47">
+        <v>1</v>
+      </c>
+      <c r="F5" s="69"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="64"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="67"/>
+      <c r="A6" s="5">
+        <v>45664</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="45">
+        <v>1</v>
+      </c>
+      <c r="F6" s="19"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
@@ -8483,8 +8644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6315495-760E-4CF1-9392-387D44B709CA}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8578,12 +8739,22 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="62"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="57"/>
+      <c r="A5" s="35">
+        <v>45297</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="39">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="F5" s="69"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
@@ -10567,6 +10738,632 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>45621</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="17">
+        <v>1</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="28">
+        <v>45629</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="37">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F3" s="70">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="31">
+        <v>45634</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="70">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="35">
+        <v>45648</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="39">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="F5" s="69">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>45656</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="38">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F6" s="71">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="31">
+        <v>45295</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" s="37">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F7" s="46">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="25"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="62"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="68"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E831D29-B439-4785-8411-550CF15A707F}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>45608</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="37">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="28">
+        <v>45626</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="37">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F3" s="46"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="31">
+        <v>45647</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="37">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F4" s="46"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="35">
+        <v>45654</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="39">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F5" s="69"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>45661</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="45">
+        <v>1</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="25"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="25"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="62"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="68"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28445599-7D03-430D-862E-4CEF18E064A0}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -10602,33 +11399,33 @@
     </row>
     <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>45621</v>
+        <v>45516</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>247</v>
+        <v>176</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="17">
-        <v>1</v>
-      </c>
-      <c r="F2" s="19"/>
+      <c r="E2" s="37">
+        <v>6.9444444444444448E-2</v>
+      </c>
+      <c r="F2" s="34"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
-        <v>45629</v>
+        <v>45518</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>206</v>
+        <v>58</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>246</v>
+        <v>178</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>65</v>
@@ -10636,87 +11433,141 @@
       <c r="E3" s="37">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="F3" s="46"/>
+      <c r="F3" s="41">
+        <v>0.11805555555555555</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="31">
-        <v>45634</v>
+        <v>45521</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>251</v>
+        <v>152</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="17">
-        <v>1</v>
-      </c>
-      <c r="F4" s="46"/>
+      <c r="E4" s="37">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F4" s="43">
+        <v>4</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="62"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="57"/>
+      <c r="A5" s="35">
+        <v>45592</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="47">
+        <v>1</v>
+      </c>
+      <c r="F5" s="69"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="64"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="67"/>
+      <c r="A6" s="5">
+        <v>45648</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="38">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F6" s="19"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
+      <c r="A7" s="31">
+        <v>45655</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="37">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F7" s="46"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
+      <c r="A8" s="31">
+        <v>45660</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="37">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F8" s="46"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="62"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
+      <c r="A9" s="35">
+        <v>45663</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="39">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F9" s="69"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="68"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="67"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
@@ -10845,12 +11696,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E831D29-B439-4785-8411-550CF15A707F}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42191813-7BCE-47A2-B257-F672826CB526}">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F2" sqref="F2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10885,33 +11739,33 @@
     </row>
     <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>45608</v>
+        <v>45585</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E2" s="37">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="F2" s="19"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F2" s="34"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
-        <v>45626</v>
+        <v>45615</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>65</v>
@@ -10919,67 +11773,141 @@
       <c r="E3" s="37">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="F3" s="46"/>
+      <c r="F3" s="41">
+        <v>0.1111111111111111</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="24"/>
+      <c r="A4" s="31">
+        <v>45625</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="37">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="F4" s="43">
+        <v>4</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="62"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="57"/>
+      <c r="A5" s="35">
+        <v>45630</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="47">
+        <v>1</v>
+      </c>
+      <c r="F5" s="44">
+        <v>5</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="64"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="67"/>
+      <c r="A6" s="5">
+        <v>45636</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="45">
+        <v>1</v>
+      </c>
+      <c r="F6" s="34">
+        <v>6</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="24"/>
+      <c r="A7" s="31">
+        <v>45650</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" s="37">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F7" s="41">
+        <v>0.3125</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="24"/>
+      <c r="A8" s="31">
+        <v>45652</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="41">
+        <v>0.35416666666666669</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="62"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="57"/>
+      <c r="A9" s="35">
+        <v>45655</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="39">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="F9" s="42">
+        <v>0.40625</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
@@ -11118,12 +12046,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42191813-7BCE-47A2-B257-F672826CB526}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E59E6D-9B46-47AF-89FC-7D0CFC82CC78}">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11158,93 +12089,93 @@
     </row>
     <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>45585</v>
+        <v>45243</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>182</v>
+        <v>43</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>240</v>
+        <v>44</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="E2" s="37">
         <v>6.25E-2</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
-        <v>45615</v>
+        <v>45250</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>246</v>
+        <v>53</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="E3" s="37">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F3" s="46"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F3" s="43"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="31">
-        <v>45625</v>
+        <v>45257</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>248</v>
+        <v>14</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="E4" s="37">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="F4" s="46"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="35">
-        <v>45630</v>
+        <v>45265</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>193</v>
+        <v>62</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="47">
-        <v>1</v>
-      </c>
-      <c r="F5" s="69"/>
+        <v>21</v>
+      </c>
+      <c r="E5" s="39">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="F5" s="44"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
-        <v>45636</v>
+        <v>45271</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>252</v>
+        <v>71</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>65</v>
@@ -11252,47 +12183,57 @@
       <c r="E6" s="45">
         <v>1</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="34"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
+      <c r="A7" s="31">
+        <v>45281</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="37">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="F7" s="43"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="62"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="68"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="67"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
@@ -11421,12 +12362,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28445599-7D03-430D-862E-4CEF18E064A0}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C6CD99-0EF6-41BD-AB47-EA86190021AD}">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11461,19 +12405,19 @@
     </row>
     <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>45516</v>
+        <v>45453</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E2" s="37">
-        <v>6.9444444444444448E-2</v>
+        <v>9.0277777777777776E-2</v>
       </c>
       <c r="F2" s="34"/>
       <c r="G2" s="1"/>
@@ -11481,65 +12425,41 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
-        <v>45518</v>
+        <v>45457</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>65</v>
       </c>
       <c r="E3" s="37">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F3" s="41">
-        <v>0.11805555555555555</v>
-      </c>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F3" s="43"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="31">
-        <v>45521</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="37">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F4" s="43">
-        <v>4</v>
-      </c>
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35">
-        <v>45592</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="47">
-        <v>1</v>
-      </c>
-      <c r="F5" s="69"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
@@ -11716,593 +12636,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E59E6D-9B46-47AF-89FC-7D0CFC82CC78}">
-  <sheetPr>
-    <tabColor theme="0"/>
-  </sheetPr>
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>45243</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="37">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="28">
-        <v>45250</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="37">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="31">
-        <v>45257</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="37">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35">
-        <v>45265</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="39">
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>45271</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="45">
-        <v>1</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="31">
-        <v>45281</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="37">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C6CD99-0EF6-41BD-AB47-EA86190021AD}">
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>45453</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="37">
-        <v>9.0277777777777776E-2</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="28">
-        <v>45457</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="37">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Student Sheet.xlsx
+++ b/Student Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\C# Repos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9EDB9D-2D0E-4D9A-A13F-AD4F1598B56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D1B246-3CD1-48C5-A091-DDF4A353C665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="283">
   <si>
     <t>Datum</t>
   </si>
@@ -905,6 +905,9 @@
   </si>
   <si>
     <t>zavrsili nastave i nestalo nam struje, iduci put duplu pretragu</t>
+  </si>
+  <si>
+    <t>odradili pretragu gradova</t>
   </si>
 </sst>
 </file>
@@ -1666,7 +1669,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1820,12 +1823,22 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
+      <c r="A8" s="31">
+        <v>45667</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="46"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>

--- a/Student Sheet.xlsx
+++ b/Student Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\C# Repos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D1B246-3CD1-48C5-A091-DDF4A353C665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DD717B-97A4-45BD-906C-B7148149C340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Asja" sheetId="47" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="285">
   <si>
     <t>Datum</t>
   </si>
@@ -908,6 +908,12 @@
   </si>
   <si>
     <t>odradili pretragu gradova</t>
+  </si>
+  <si>
+    <t>odradili prostorije exists i gradove mutlithr.</t>
+  </si>
+  <si>
+    <t>Ned u 1</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1348,13 +1354,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1379,6 +1379,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1668,7 +1689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54552D2-B679-414E-8DE7-F4A9AF7C87BF}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1778,7 +1799,7 @@
       <c r="E5" s="39">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="F5" s="69"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
@@ -1843,7 +1864,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="62"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
       <c r="D9" s="55"/>
@@ -1853,12 +1874,12 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="68"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="67"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
@@ -5332,7 +5353,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5441,7 +5462,7 @@
       <c r="E5" s="47">
         <v>1</v>
       </c>
-      <c r="F5" s="69"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
@@ -5466,12 +5487,22 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
+      <c r="A7" s="31">
+        <v>45668</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="37">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F7" s="46"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
@@ -5486,7 +5517,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="62"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
       <c r="D9" s="55"/>
@@ -5496,12 +5527,12 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="68"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="67"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
@@ -8767,17 +8798,17 @@
       <c r="E5" s="39">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="F5" s="69"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="64"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="67"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
@@ -8802,7 +8833,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="62"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
       <c r="D9" s="55"/>
@@ -8812,12 +8843,12 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="68"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="67"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
@@ -10820,7 +10851,7 @@
       <c r="E3" s="37">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="F3" s="70">
+      <c r="F3" s="68">
         <v>9.0277777777777776E-2</v>
       </c>
       <c r="G3" s="1"/>
@@ -10842,7 +10873,7 @@
       <c r="E4" s="17">
         <v>1</v>
       </c>
-      <c r="F4" s="70">
+      <c r="F4" s="68">
         <v>0.13194444444444445</v>
       </c>
       <c r="G4" s="1"/>
@@ -10864,7 +10895,7 @@
       <c r="E5" s="39">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="F5" s="69">
+      <c r="F5" s="67">
         <v>4</v>
       </c>
       <c r="G5" s="1"/>
@@ -10886,7 +10917,7 @@
       <c r="E6" s="38">
         <v>6.25E-2</v>
       </c>
-      <c r="F6" s="71">
+      <c r="F6" s="69">
         <v>0.22916666666666666</v>
       </c>
       <c r="G6" s="1"/>
@@ -10925,7 +10956,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="62"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
       <c r="D9" s="55"/>
@@ -10935,12 +10966,12 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="68"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="67"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
@@ -11073,8 +11104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E831D29-B439-4785-8411-550CF15A707F}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11183,7 +11214,7 @@
       <c r="E5" s="39">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="F5" s="69"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
@@ -11208,12 +11239,22 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="24"/>
+      <c r="A7" s="31">
+        <v>45669</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="76">
+        <v>1</v>
+      </c>
+      <c r="F7" s="46"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
@@ -11222,28 +11263,28 @@
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
-      <c r="E8" s="61"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="24"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="62"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
       <c r="D9" s="55"/>
-      <c r="E9" s="63"/>
+      <c r="E9" s="71"/>
       <c r="F9" s="57"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="68"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="67"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
@@ -11252,7 +11293,7 @@
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="15"/>
+      <c r="E11" s="73"/>
       <c r="F11" s="13"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -11262,7 +11303,7 @@
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="15"/>
+      <c r="E12" s="73"/>
       <c r="F12" s="13"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -11272,7 +11313,7 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="16"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="3"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -11282,7 +11323,7 @@
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="14"/>
+      <c r="E14" s="75"/>
       <c r="F14" s="4"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -11292,7 +11333,7 @@
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="15"/>
+      <c r="E15" s="73"/>
       <c r="F15" s="13"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -11302,7 +11343,7 @@
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="15"/>
+      <c r="E16" s="73"/>
       <c r="F16" s="13"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -11312,7 +11353,7 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="16"/>
+      <c r="E17" s="74"/>
       <c r="F17" s="3"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -11377,7 +11418,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11490,7 +11531,7 @@
       <c r="E5" s="47">
         <v>1</v>
       </c>
-      <c r="F5" s="69"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
@@ -11510,7 +11551,9 @@
       <c r="E6" s="38">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="69">
+        <v>6.25E-2</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
@@ -11530,7 +11573,9 @@
       <c r="E7" s="37">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="F7" s="46"/>
+      <c r="F7" s="68">
+        <v>0.1111111111111111</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
@@ -11550,7 +11595,9 @@
       <c r="E8" s="37">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="F8" s="46"/>
+      <c r="F8" s="68">
+        <v>0.15972222222222221</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
@@ -11570,17 +11617,31 @@
       <c r="E9" s="39">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="F9" s="69"/>
+      <c r="F9" s="67">
+        <v>5</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="4"/>
+      <c r="A10" s="5">
+        <v>45668</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="38">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="F10" s="69">
+        <v>0.2638888888888889</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
@@ -11925,12 +11986,12 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="68"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="67"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>

--- a/Student Sheet.xlsx
+++ b/Student Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\C# Repos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DD717B-97A4-45BD-906C-B7148149C340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C88FE18-A9D5-48DF-88B1-327D197F59D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Asja" sheetId="47" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="289">
   <si>
     <t>Datum</t>
   </si>
@@ -914,6 +914,18 @@
   </si>
   <si>
     <t>Ned u 1</t>
+  </si>
+  <si>
+    <t>odradili prostorije multir</t>
+  </si>
+  <si>
+    <t>objasniti drugi nacin task run odradili combo box</t>
+  </si>
+  <si>
+    <t>odradili gradove mulithr</t>
+  </si>
+  <si>
+    <t>doraditi drugi nacin i combo box</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1379,27 +1391,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1690,7 +1681,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1864,12 +1855,22 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="61"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
+      <c r="A9" s="35">
+        <v>45671</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="E9" s="39">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="F9" s="67"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
@@ -10781,8 +10782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A575B88F-F578-4D23-ADB4-208EAF8DDE31}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10831,7 +10832,7 @@
       <c r="E2" s="17">
         <v>1</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
@@ -10851,7 +10852,7 @@
       <c r="E3" s="37">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="F3" s="68">
+      <c r="F3" s="41">
         <v>9.0277777777777776E-2</v>
       </c>
       <c r="G3" s="1"/>
@@ -10873,7 +10874,7 @@
       <c r="E4" s="17">
         <v>1</v>
       </c>
-      <c r="F4" s="68">
+      <c r="F4" s="41">
         <v>0.13194444444444445</v>
       </c>
       <c r="G4" s="1"/>
@@ -10895,7 +10896,7 @@
       <c r="E5" s="39">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="F5" s="67">
+      <c r="F5" s="44">
         <v>4</v>
       </c>
       <c r="G5" s="1"/>
@@ -10917,7 +10918,7 @@
       <c r="E6" s="38">
         <v>6.25E-2</v>
       </c>
-      <c r="F6" s="69">
+      <c r="F6" s="40">
         <v>0.22916666666666666</v>
       </c>
       <c r="G6" s="1"/>
@@ -10939,19 +10940,29 @@
       <c r="E7" s="37">
         <v>6.25E-2</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="43">
         <v>7</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
+      <c r="A8" s="31">
+        <v>45305</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="46"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
@@ -11104,7 +11115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E831D29-B439-4785-8411-550CF15A707F}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -11251,7 +11262,7 @@
       <c r="D7" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="76">
+      <c r="E7" s="17">
         <v>1</v>
       </c>
       <c r="F7" s="46"/>
@@ -11263,7 +11274,7 @@
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
-      <c r="E8" s="70"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="24"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -11273,7 +11284,7 @@
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
       <c r="D9" s="55"/>
-      <c r="E9" s="71"/>
+      <c r="E9" s="56"/>
       <c r="F9" s="57"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -11283,7 +11294,7 @@
       <c r="B10" s="63"/>
       <c r="C10" s="63"/>
       <c r="D10" s="63"/>
-      <c r="E10" s="72"/>
+      <c r="E10" s="64"/>
       <c r="F10" s="65"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -11293,7 +11304,7 @@
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="73"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="13"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -11303,7 +11314,7 @@
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="73"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="13"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -11313,7 +11324,7 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="74"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="3"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -11323,7 +11334,7 @@
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="75"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="4"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -11333,7 +11344,7 @@
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="73"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="13"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -11343,7 +11354,7 @@
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="73"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="13"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -11353,7 +11364,7 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="74"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="3"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>

--- a/Student Sheet.xlsx
+++ b/Student Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\C# Repos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C88FE18-A9D5-48DF-88B1-327D197F59D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4AF66C-3569-4BB2-B3B6-A328A29EC700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Asja" sheetId="47" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="293">
   <si>
     <t>Datum</t>
   </si>
@@ -926,6 +926,18 @@
   </si>
   <si>
     <t>doraditi drugi nacin i combo box</t>
+  </si>
+  <si>
+    <t>Cet u 5:10</t>
+  </si>
+  <si>
+    <t>odradili exists na gradovima</t>
+  </si>
+  <si>
+    <t>odradili prostorije pretraga i multithr.</t>
+  </si>
+  <si>
+    <t>ostala jos pretraga u gradovima i reporting</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1367,9 +1379,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1790,7 +1799,7 @@
       <c r="E5" s="39">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="F5" s="67"/>
+      <c r="F5" s="66"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
@@ -1870,17 +1879,17 @@
       <c r="E9" s="39">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="F9" s="67"/>
+      <c r="F9" s="66"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="66"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="65"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
@@ -5353,8 +5362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8434A8-4BC0-417A-990C-8B472EE28ACB}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5463,7 +5472,7 @@
       <c r="E5" s="47">
         <v>1</v>
       </c>
-      <c r="F5" s="67"/>
+      <c r="F5" s="66"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
@@ -5508,12 +5517,22 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
+      <c r="A8" s="31">
+        <v>45673</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="E8" s="37">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F8" s="46"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
@@ -5528,12 +5547,12 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="66"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="65"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
@@ -8690,7 +8709,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8799,17 +8818,27 @@
       <c r="E5" s="39">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="F5" s="67"/>
+      <c r="F5" s="66"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="62"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="65"/>
+      <c r="A6" s="5">
+        <v>45307</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="45">
+        <v>1</v>
+      </c>
+      <c r="F6" s="19"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
@@ -8844,12 +8873,12 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="66"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="65"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
@@ -10782,7 +10811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A575B88F-F578-4D23-ADB4-208EAF8DDE31}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -10977,12 +11006,12 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="66"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="65"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
@@ -11225,7 +11254,7 @@
       <c r="E5" s="39">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="F5" s="67"/>
+      <c r="F5" s="66"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
@@ -11290,12 +11319,12 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="66"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="65"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
@@ -11542,7 +11571,7 @@
       <c r="E5" s="47">
         <v>1</v>
       </c>
-      <c r="F5" s="67"/>
+      <c r="F5" s="66"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
@@ -11562,7 +11591,7 @@
       <c r="E6" s="38">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="F6" s="69">
+      <c r="F6" s="68">
         <v>6.25E-2</v>
       </c>
       <c r="G6" s="1"/>
@@ -11584,7 +11613,7 @@
       <c r="E7" s="37">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="F7" s="68">
+      <c r="F7" s="67">
         <v>0.1111111111111111</v>
       </c>
       <c r="G7" s="1"/>
@@ -11606,7 +11635,7 @@
       <c r="E8" s="37">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="F8" s="68">
+      <c r="F8" s="67">
         <v>0.15972222222222221</v>
       </c>
       <c r="G8" s="1"/>
@@ -11628,7 +11657,7 @@
       <c r="E9" s="39">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="F9" s="67">
+      <c r="F9" s="66">
         <v>5</v>
       </c>
       <c r="G9" s="1"/>
@@ -11650,7 +11679,7 @@
       <c r="E10" s="38">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="F10" s="69">
+      <c r="F10" s="68">
         <v>0.2638888888888889</v>
       </c>
       <c r="G10" s="1"/>
@@ -11997,12 +12026,12 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="66"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="65"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>

--- a/Student Sheet.xlsx
+++ b/Student Sheet.xlsx
@@ -8,46 +8,47 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\C# Repos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4AF66C-3569-4BB2-B3B6-A328A29EC700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C6D6C4-67E3-47CC-944E-862AF129B299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Asja" sheetId="47" r:id="rId1"/>
-    <sheet name="Izudin i co" sheetId="46" r:id="rId2"/>
-    <sheet name="Emir" sheetId="45" r:id="rId3"/>
-    <sheet name="Selma Mehmedćehajić " sheetId="44" r:id="rId4"/>
-    <sheet name="Jasmin Jamakovic" sheetId="43" r:id="rId5"/>
-    <sheet name="Emina Salihovic" sheetId="36" r:id="rId6"/>
-    <sheet name="Amar" sheetId="42" r:id="rId7"/>
-    <sheet name="Imad Mahovic" sheetId="18" r:id="rId8"/>
-    <sheet name="Amna Spahalic" sheetId="26" r:id="rId9"/>
-    <sheet name="Kerim" sheetId="34" r:id="rId10"/>
-    <sheet name="Amina Mukanovic" sheetId="17" r:id="rId11"/>
-    <sheet name="Aida Ajdin i Hana" sheetId="33" r:id="rId12"/>
-    <sheet name="Ahmo" sheetId="39" r:id="rId13"/>
-    <sheet name="Muharem Ravnjak" sheetId="40" r:id="rId14"/>
-    <sheet name="Unejsa Haskic" sheetId="41" r:id="rId15"/>
-    <sheet name="Benjamin Gogalić" sheetId="37" r:id="rId16"/>
-    <sheet name="Lamija" sheetId="31" r:id="rId17"/>
-    <sheet name="Haris Vrcić" sheetId="32" r:id="rId18"/>
-    <sheet name="Ajdin Alic" sheetId="19" r:id="rId19"/>
-    <sheet name="Izel Repuh" sheetId="38" r:id="rId20"/>
-    <sheet name="Selma Omerika" sheetId="35" r:id="rId21"/>
-    <sheet name="Selim" sheetId="30" r:id="rId22"/>
-    <sheet name="Ajla Fraško" sheetId="13" r:id="rId23"/>
-    <sheet name="Edo" sheetId="25" r:id="rId24"/>
-    <sheet name="Ivana" sheetId="29" r:id="rId25"/>
-    <sheet name="Amina" sheetId="28" r:id="rId26"/>
-    <sheet name="Maida Kovač" sheetId="27" r:id="rId27"/>
-    <sheet name="Senaida Duran" sheetId="24" r:id="rId28"/>
-    <sheet name="Dženita Džiho" sheetId="23" r:id="rId29"/>
-    <sheet name="Amar2" sheetId="22" r:id="rId30"/>
-    <sheet name="Amar Kodro i Ammar Puce" sheetId="21" r:id="rId31"/>
-    <sheet name="Dusko Savic" sheetId="14" r:id="rId32"/>
-    <sheet name="Ajla Stahljak" sheetId="20" r:id="rId33"/>
-    <sheet name="Igor Boskovic" sheetId="12" r:id="rId34"/>
-    <sheet name="Merima" sheetId="16" r:id="rId35"/>
+    <sheet name="Almina Voloder" sheetId="48" r:id="rId1"/>
+    <sheet name="Asja" sheetId="47" r:id="rId2"/>
+    <sheet name="Izudin i co" sheetId="46" r:id="rId3"/>
+    <sheet name="Emir" sheetId="45" r:id="rId4"/>
+    <sheet name="Selma Mehmedćehajić " sheetId="44" r:id="rId5"/>
+    <sheet name="Jasmin Jamakovic" sheetId="43" r:id="rId6"/>
+    <sheet name="Emina Salihovic" sheetId="36" r:id="rId7"/>
+    <sheet name="Amar" sheetId="42" r:id="rId8"/>
+    <sheet name="Imad Mahovic" sheetId="18" r:id="rId9"/>
+    <sheet name="Amna Spahalic" sheetId="26" r:id="rId10"/>
+    <sheet name="Kerim" sheetId="34" r:id="rId11"/>
+    <sheet name="Amina Mukanovic" sheetId="17" r:id="rId12"/>
+    <sheet name="Aida Ajdin i Hana" sheetId="33" r:id="rId13"/>
+    <sheet name="Ahmo" sheetId="39" r:id="rId14"/>
+    <sheet name="Muharem Ravnjak" sheetId="40" r:id="rId15"/>
+    <sheet name="Unejsa Haskic" sheetId="41" r:id="rId16"/>
+    <sheet name="Benjamin Gogalić" sheetId="37" r:id="rId17"/>
+    <sheet name="Lamija" sheetId="31" r:id="rId18"/>
+    <sheet name="Haris Vrcić" sheetId="32" r:id="rId19"/>
+    <sheet name="Ajdin Alic" sheetId="19" r:id="rId20"/>
+    <sheet name="Izel Repuh" sheetId="38" r:id="rId21"/>
+    <sheet name="Selma Omerika" sheetId="35" r:id="rId22"/>
+    <sheet name="Selim" sheetId="30" r:id="rId23"/>
+    <sheet name="Ajla Fraško" sheetId="13" r:id="rId24"/>
+    <sheet name="Edo" sheetId="25" r:id="rId25"/>
+    <sheet name="Ivana" sheetId="29" r:id="rId26"/>
+    <sheet name="Amina" sheetId="28" r:id="rId27"/>
+    <sheet name="Maida Kovač" sheetId="27" r:id="rId28"/>
+    <sheet name="Senaida Duran" sheetId="24" r:id="rId29"/>
+    <sheet name="Dženita Džiho" sheetId="23" r:id="rId30"/>
+    <sheet name="Amar2" sheetId="22" r:id="rId31"/>
+    <sheet name="Amar Kodro i Ammar Puce" sheetId="21" r:id="rId32"/>
+    <sheet name="Dusko Savic" sheetId="14" r:id="rId33"/>
+    <sheet name="Ajla Stahljak" sheetId="20" r:id="rId34"/>
+    <sheet name="Igor Boskovic" sheetId="12" r:id="rId35"/>
+    <sheet name="Merima" sheetId="16" r:id="rId36"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="295">
   <si>
     <t>Datum</t>
   </si>
@@ -938,6 +939,12 @@
   </si>
   <si>
     <t>ostala jos pretraga u gradovima i reporting</t>
+  </si>
+  <si>
+    <t>odradili gradove baza i prikaz</t>
+  </si>
+  <si>
+    <t>bez dodatne samo raditi gradove ispitni</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1400,6 +1407,69 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1686,11 +1756,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54552D2-B679-414E-8DE7-F4A9AF7C87BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A0D567-2ACF-42FA-A572-FFF19DC51FA0}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1725,171 +1795,101 @@
     </row>
     <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>45642</v>
+        <v>45675</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>65</v>
+        <v>294</v>
       </c>
       <c r="E2" s="37">
-        <v>4.8611111111111112E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="28">
-        <v>45650</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="37">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F3" s="46"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="74"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="31">
-        <v>45653</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="E4" s="37">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F4" s="46"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="74"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35">
-        <v>45657</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>268</v>
-      </c>
-      <c r="E5" s="39">
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="F5" s="66"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>45660</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="38">
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="F6" s="19"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="85"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="31">
-        <v>45664</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="E7" s="37">
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="F7" s="46"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="31">
-        <v>45667</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="17">
-        <v>1</v>
-      </c>
-      <c r="F8" s="46"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="35">
-        <v>45671</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>278</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>285</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>286</v>
-      </c>
-      <c r="E9" s="39">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="F9" s="66"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="87"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="64"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="85"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
@@ -2019,6 +2019,282 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C6CD99-0EF6-41BD-AB47-EA86190021AD}">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>45453</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="37">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="28">
+        <v>45457</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="37">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F3" s="43"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA3C194-EEE2-470D-836E-AB508094F8B3}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -2368,7 +2644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73362BE8-AD62-4B7C-AE5A-D9FD2A813C81}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -2706,7 +2982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F4B2AF-BD94-4638-B889-337F4330636E}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -3067,7 +3343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1531D4-206E-446B-AF4B-D32EDA93C5F5}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -3367,7 +3643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76BDFF87-BFC6-4754-BD91-F021292EF3ED}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -3704,7 +3980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D685E43-AB95-4C33-AD06-A319F4AFA55B}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -4030,7 +4306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D181A2-8B4E-4BE5-89F6-6B64401C9BBA}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -4328,7 +4604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8616155A-328F-4B2A-B014-976C78025EB8}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -4666,7 +4942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC95D96-A461-4F6B-9B0C-720628B8658C}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -4992,7 +5268,354 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54552D2-B679-414E-8DE7-F4A9AF7C87BF}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>45642</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="37">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="28">
+        <v>45650</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="37">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F3" s="67">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="31">
+        <v>45653</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="E4" s="37">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F4" s="67">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="35">
+        <v>45657</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5" s="39">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="F5" s="69">
+        <v>0.1736111111111111</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>45660</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="38">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="F6" s="19">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="31">
+        <v>45664</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="E7" s="37">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="F7" s="67">
+        <v>0.2361111111111111</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="31">
+        <v>45667</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="67">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35">
+        <v>45671</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="E9" s="39">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="F9" s="66">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="65"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B7B82E-5A88-4222-BB12-55A36A102F5C}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -5358,330 +5981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8434A8-4BC0-417A-990C-8B472EE28ACB}">
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>45631</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="17">
-        <v>1</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="28">
-        <v>45636</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="37">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="31">
-        <v>45649</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="37">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35">
-        <v>45662</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>277</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="47">
-        <v>1</v>
-      </c>
-      <c r="F5" s="66"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>45664</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="45">
-        <v>1</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="31">
-        <v>45668</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="37">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="31">
-        <v>45673</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="E8" s="37">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="61"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C078972A-0EF7-4C60-90F7-1DC9FF3FED10}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -5971,7 +6271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24F45A2-4070-40C4-B75A-BC36B155E069}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -6309,7 +6609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81608CAE-E60C-483B-9324-6D1F9FD00EEA}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -6635,7 +6935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4566E752-6A5B-484B-A75D-62536E17E1DC}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -7041,7 +7341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B872FB-607D-4DBB-935E-1043FD9E644F}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -7317,7 +7617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF8ABF2-8D94-4C7A-BF9F-2EDB94D66F66}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -7593,7 +7893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D746DF97-F904-4AFA-B2D3-63A397C59FBE}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -7869,7 +8169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FC9A22-DB8B-4C19-A73A-55BCB7CCA96D}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -8171,7 +8471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34961AE4-2569-4779-81D5-5385D1EF3C44}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -8438,7 +8738,342 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8434A8-4BC0-417A-990C-8B472EE28ACB}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>45631</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="17">
+        <v>1</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="28">
+        <v>45636</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="37">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F3" s="67">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="31">
+        <v>45649</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="37">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F4" s="67">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="35">
+        <v>45662</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="47">
+        <v>1</v>
+      </c>
+      <c r="F5" s="69">
+        <v>0.1736111111111111</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>45664</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="45">
+        <v>1</v>
+      </c>
+      <c r="F6" s="68">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="31">
+        <v>45668</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="37">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F7" s="67">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="31">
+        <v>45673</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="E8" s="37">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F8" s="67">
+        <v>0.3125</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="61"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="65"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6C49AB-E8F1-48FC-959C-9AE8ED21C98B}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -8704,310 +9339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6315495-760E-4CF1-9392-387D44B709CA}">
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>45627</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="17">
-        <v>1</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="28">
-        <v>45634</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="37">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="31">
-        <v>45644</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="17">
-        <v>1</v>
-      </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35">
-        <v>45297</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="39">
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="F5" s="66"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>45307</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="45">
-        <v>1</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="61"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018EA368-8B32-45FE-B183-24BABEB990B4}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -9331,7 +9663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96AEC82-2A64-4433-994B-3F347DA16BC8}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -9637,7 +9969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0CF6328-2D8B-4D53-8C26-8BC4EC2D76CE}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -9923,7 +10255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6104530C-EC0C-453E-817D-109A45759FC7}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -10189,7 +10521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17ABF3DF-30F1-4B73-8549-C52B9007ACC7}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -10541,7 +10873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5CD8BA-312D-4819-AF98-33211799D3F6}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -10808,11 +11140,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A575B88F-F578-4D23-ADB4-208EAF8DDE31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6315495-760E-4CF1-9392-387D44B709CA}">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10847,10 +11179,10 @@
     </row>
     <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>247</v>
@@ -10861,16 +11193,16 @@
       <c r="E2" s="17">
         <v>1</v>
       </c>
-      <c r="F2" s="34"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
-        <v>45629</v>
+        <v>45634</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>246</v>
@@ -10881,21 +11213,19 @@
       <c r="E3" s="37">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="F3" s="41">
-        <v>9.0277777777777776E-2</v>
-      </c>
+      <c r="F3" s="46"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="31">
-        <v>45634</v>
+        <v>45644</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>65</v>
@@ -10903,21 +11233,19 @@
       <c r="E4" s="17">
         <v>1</v>
       </c>
-      <c r="F4" s="41">
-        <v>0.13194444444444445</v>
-      </c>
+      <c r="F4" s="46"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="35">
-        <v>45648</v>
+        <v>45297</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>65</v>
@@ -10925,73 +11253,47 @@
       <c r="E5" s="39">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="F5" s="44">
-        <v>4</v>
-      </c>
+      <c r="F5" s="66"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
-        <v>45656</v>
+        <v>45307</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="38">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F6" s="40">
-        <v>0.22916666666666666</v>
-      </c>
+      <c r="E6" s="45">
+        <v>1</v>
+      </c>
+      <c r="F6" s="19"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="31">
-        <v>45295</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="E7" s="37">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F7" s="43">
-        <v>7</v>
-      </c>
+      <c r="A7" s="25"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="31">
-        <v>45305</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="E8" s="17">
-        <v>1</v>
-      </c>
-      <c r="F8" s="46"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
@@ -11141,11 +11443,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E831D29-B439-4785-8411-550CF15A707F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A575B88F-F578-4D23-ADB4-208EAF8DDE31}">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11180,33 +11482,33 @@
     </row>
     <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>45608</v>
+        <v>45621</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="37">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="F2" s="19"/>
+      <c r="E2" s="17">
+        <v>1</v>
+      </c>
+      <c r="F2" s="34"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
-        <v>45626</v>
+        <v>45629</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>65</v>
@@ -11214,97 +11516,117 @@
       <c r="E3" s="37">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="F3" s="46"/>
+      <c r="F3" s="41">
+        <v>9.0277777777777776E-2</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="31">
-        <v>45647</v>
+        <v>45634</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="37">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F4" s="46"/>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="41">
+        <v>0.13194444444444445</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="35">
-        <v>45654</v>
+        <v>45648</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>65</v>
       </c>
       <c r="E5" s="39">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F5" s="66"/>
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="F5" s="44">
+        <v>4</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
-        <v>45661</v>
+        <v>45656</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>180</v>
+        <v>273</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="45">
-        <v>1</v>
-      </c>
-      <c r="F6" s="19"/>
+      <c r="E6" s="38">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F6" s="40">
+        <v>0.22916666666666666</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="31">
-        <v>45669</v>
+        <v>45295</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>284</v>
+        <v>141</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>218</v>
+        <v>275</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="17">
-        <v>1</v>
-      </c>
-      <c r="F7" s="46"/>
+        <v>261</v>
+      </c>
+      <c r="E7" s="37">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F7" s="43">
+        <v>7</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
+      <c r="A8" s="31">
+        <v>45305</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="46"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
@@ -11454,6 +11776,341 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E831D29-B439-4785-8411-550CF15A707F}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>45608</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="37">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="28">
+        <v>45626</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="37">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F3" s="67">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="31">
+        <v>45647</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="37">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F4" s="67">
+        <v>0.15277777777777779</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="35">
+        <v>45654</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="39">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F5" s="69">
+        <v>0.2013888888888889</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>45661</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="45">
+        <v>1</v>
+      </c>
+      <c r="F6" s="68">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="31">
+        <v>45669</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1</v>
+      </c>
+      <c r="F7" s="67">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="31">
+        <v>45675</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="37">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F8" s="46">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="61"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="65"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28445599-7D03-430D-862E-4CEF18E064A0}">
   <dimension ref="A1:H22"/>
   <sheetViews>
@@ -11810,7 +12467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42191813-7BCE-47A2-B257-F672826CB526}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -12160,7 +12817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E59E6D-9B46-47AF-89FC-7D0CFC82CC78}">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -12474,280 +13131,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C6CD99-0EF6-41BD-AB47-EA86190021AD}">
-  <sheetPr>
-    <tabColor rgb="FF00FF00"/>
-  </sheetPr>
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>45453</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="37">
-        <v>9.0277777777777776E-2</v>
-      </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="28">
-        <v>45457</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="37">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Student Sheet.xlsx
+++ b/Student Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\C# Repos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C6D6C4-67E3-47CC-944E-862AF129B299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135EAF80-BD11-4E46-AB05-AE60FBFDDCC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Almina Voloder" sheetId="48" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="295">
   <si>
     <t>Datum</t>
   </si>
@@ -1203,7 +1203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1412,64 +1412,25 @@
     <xf numFmtId="20" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1759,7 +1720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A0D567-2ACF-42FA-A572-FFF19DC51FA0}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1814,82 +1775,82 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="74"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="71"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="71"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="81"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="74"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="85"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="75"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="74"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="71"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="75"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="74"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="71"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="78"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="87"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="88"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="85"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
@@ -8742,8 +8703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8434A8-4BC0-417A-990C-8B472EE28ACB}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8929,12 +8890,24 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="61"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
+      <c r="A9" s="35">
+        <v>45676</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="39">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F9" s="66">
+        <v>9</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>

--- a/Student Sheet.xlsx
+++ b/Student Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\C# Repos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135EAF80-BD11-4E46-AB05-AE60FBFDDCC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FE422A-1AAB-45B4-8AEA-36C7F039EFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Almina Voloder" sheetId="48" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="295">
   <si>
     <t>Datum</t>
   </si>
@@ -8703,7 +8703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8434A8-4BC0-417A-990C-8B472EE28ACB}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -11419,8 +11419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A575B88F-F578-4D23-ADB4-208EAF8DDE31}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11563,7 +11563,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="31">
-        <v>45295</v>
+        <v>45661</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>141</v>
@@ -11585,7 +11585,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="31">
-        <v>45305</v>
+        <v>45671</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>130</v>
@@ -11604,12 +11604,22 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="61"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
+      <c r="A9" s="35">
+        <v>45676</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="39">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="F9" s="66"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>

--- a/Student Sheet.xlsx
+++ b/Student Sheet.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\C# Repos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FE422A-1AAB-45B4-8AEA-36C7F039EFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311AEFC4-DED6-43DD-8B3A-8B214B5771F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Almina Voloder" sheetId="48" r:id="rId1"/>
     <sheet name="Asja" sheetId="47" r:id="rId2"/>
     <sheet name="Izudin i co" sheetId="46" r:id="rId3"/>
     <sheet name="Emir" sheetId="45" r:id="rId4"/>
-    <sheet name="Selma Mehmedćehajić " sheetId="44" r:id="rId5"/>
-    <sheet name="Jasmin Jamakovic" sheetId="43" r:id="rId6"/>
-    <sheet name="Emina Salihovic" sheetId="36" r:id="rId7"/>
+    <sheet name="Jasmin Jamakovic" sheetId="43" r:id="rId5"/>
+    <sheet name="Emina Salihovic" sheetId="36" r:id="rId6"/>
+    <sheet name="Selma Mehmedćehajić " sheetId="44" r:id="rId7"/>
     <sheet name="Amar" sheetId="42" r:id="rId8"/>
     <sheet name="Imad Mahovic" sheetId="18" r:id="rId9"/>
     <sheet name="Amna Spahalic" sheetId="26" r:id="rId10"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="297">
   <si>
     <t>Datum</t>
   </si>
@@ -945,6 +945,12 @@
   </si>
   <si>
     <t>bez dodatne samo raditi gradove ispitni</t>
+  </si>
+  <si>
+    <t>Pon u 2:15</t>
+  </si>
+  <si>
+    <t>Uto u 5:20</t>
   </si>
 </sst>
 </file>
@@ -5234,7 +5240,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5442,12 +5448,24 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="64"/>
+      <c r="A10" s="5">
+        <v>45677</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="45">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19">
+        <v>9</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
@@ -11116,8 +11134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6315495-760E-4CF1-9392-387D44B709CA}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11212,7 +11230,7 @@
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="35">
-        <v>45297</v>
+        <v>45663</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>236</v>
@@ -11232,7 +11250,7 @@
     </row>
     <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
-        <v>45307</v>
+        <v>45673</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>289</v>
@@ -11251,12 +11269,22 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
+      <c r="A7" s="31">
+        <v>45678</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="37">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="F7" s="46"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
@@ -11416,349 +11444,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A575B88F-F578-4D23-ADB4-208EAF8DDE31}">
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>45621</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="17">
-        <v>1</v>
-      </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="28">
-        <v>45629</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="37">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F3" s="41">
-        <v>9.0277777777777776E-2</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="31">
-        <v>45634</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="17">
-        <v>1</v>
-      </c>
-      <c r="F4" s="41">
-        <v>0.13194444444444445</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35">
-        <v>45648</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="39">
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="F5" s="44">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>45656</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="38">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F6" s="40">
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="31">
-        <v>45661</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="E7" s="37">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F7" s="43">
-        <v>7</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="31">
-        <v>45671</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="E8" s="17">
-        <v>1</v>
-      </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="35">
-        <v>45676</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="39">
-        <v>5.2083333333333336E-2</v>
-      </c>
-      <c r="F9" s="66"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E831D29-B439-4785-8411-550CF15A707F}">
   <dimension ref="A1:H22"/>
   <sheetViews>
@@ -12093,7 +11778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28445599-7D03-430D-862E-4CEF18E064A0}">
   <dimension ref="A1:H22"/>
   <sheetViews>
@@ -12322,6 +12007,352 @@
       <c r="F10" s="68">
         <v>0.2638888888888889</v>
       </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A575B88F-F578-4D23-ADB4-208EAF8DDE31}">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>45621</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="17">
+        <v>1</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="28">
+        <v>45629</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="37">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F3" s="41">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="31">
+        <v>45634</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="41">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="35">
+        <v>45648</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="39">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="F5" s="44">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>45656</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="38">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F6" s="40">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="31">
+        <v>45661</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" s="37">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F7" s="43">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="31">
+        <v>45671</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35">
+        <v>45676</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="39">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="F9" s="44"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="65"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>

--- a/Student Sheet.xlsx
+++ b/Student Sheet.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\C# Repos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311AEFC4-DED6-43DD-8B3A-8B214B5771F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3BEF72-DD20-4642-B961-2F6A92AB1E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Almina Voloder" sheetId="48" r:id="rId1"/>
-    <sheet name="Asja" sheetId="47" r:id="rId2"/>
-    <sheet name="Izudin i co" sheetId="46" r:id="rId3"/>
-    <sheet name="Emir" sheetId="45" r:id="rId4"/>
-    <sheet name="Jasmin Jamakovic" sheetId="43" r:id="rId5"/>
-    <sheet name="Emina Salihovic" sheetId="36" r:id="rId6"/>
+    <sheet name="Izudin i co" sheetId="46" r:id="rId2"/>
+    <sheet name="Emir" sheetId="45" r:id="rId3"/>
+    <sheet name="Jasmin Jamakovic" sheetId="43" r:id="rId4"/>
+    <sheet name="Emina Salihovic" sheetId="36" r:id="rId5"/>
+    <sheet name="Asja" sheetId="47" r:id="rId6"/>
     <sheet name="Selma Mehmedćehajić " sheetId="44" r:id="rId7"/>
     <sheet name="Amar" sheetId="42" r:id="rId8"/>
     <sheet name="Imad Mahovic" sheetId="18" r:id="rId9"/>
@@ -5236,11 +5236,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54552D2-B679-414E-8DE7-F4A9AF7C87BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8434A8-4BC0-417A-990C-8B472EE28ACB}">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5275,10 +5275,10 @@
     </row>
     <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>45642</v>
+        <v>45631</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>187</v>
+        <v>249</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>250</v>
@@ -5286,8 +5286,8 @@
       <c r="D2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="37">
-        <v>4.8611111111111112E-2</v>
+      <c r="E2" s="17">
+        <v>1</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="1"/>
@@ -5295,13 +5295,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
-        <v>45650</v>
+        <v>45636</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>65</v>
@@ -5310,48 +5310,48 @@
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="F3" s="67">
-        <v>9.7222222222222224E-2</v>
+        <v>9.0277777777777776E-2</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="31">
-        <v>45653</v>
+        <v>45649</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>169</v>
+        <v>258</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>259</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>264</v>
+        <v>65</v>
       </c>
       <c r="E4" s="37">
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="F4" s="67">
-        <v>0.14583333333333334</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="35">
-        <v>45657</v>
+        <v>45662</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>269</v>
+        <v>182</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>268</v>
-      </c>
-      <c r="E5" s="39">
-        <v>2.7777777777777776E-2</v>
+        <v>65</v>
+      </c>
+      <c r="E5" s="47">
+        <v>1</v>
       </c>
       <c r="F5" s="69">
         <v>0.1736111111111111</v>
@@ -5361,111 +5361,99 @@
     </row>
     <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
-        <v>45660</v>
+        <v>45664</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>197</v>
+        <v>278</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="38">
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="F6" s="19">
-        <v>5</v>
+      <c r="E6" s="45">
+        <v>1</v>
+      </c>
+      <c r="F6" s="68">
+        <v>0.21527777777777779</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="31">
-        <v>45664</v>
+        <v>45668</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>281</v>
+        <v>65</v>
       </c>
       <c r="E7" s="37">
-        <v>2.7777777777777776E-2</v>
+        <v>4.8611111111111112E-2</v>
       </c>
       <c r="F7" s="67">
-        <v>0.2361111111111111</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="31">
-        <v>45667</v>
+        <v>45673</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="17">
-        <v>1</v>
+        <v>292</v>
+      </c>
+      <c r="E8" s="37">
+        <v>4.8611111111111112E-2</v>
       </c>
       <c r="F8" s="67">
-        <v>0.27777777777777779</v>
+        <v>0.3125</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="35">
-        <v>45671</v>
+        <v>45676</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>278</v>
+        <v>182</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>285</v>
+        <v>192</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>286</v>
+        <v>65</v>
       </c>
       <c r="E9" s="39">
-        <v>5.5555555555555552E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="F9" s="66">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>45677</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="45">
-        <v>1</v>
-      </c>
-      <c r="F10" s="19">
-        <v>9</v>
-      </c>
+      <c r="A10" s="65"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
@@ -8718,11 +8706,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8434A8-4BC0-417A-990C-8B472EE28ACB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6315495-760E-4CF1-9392-387D44B709CA}">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8757,13 +8745,13 @@
     </row>
     <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>45631</v>
+        <v>45627</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>249</v>
+        <v>182</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>65</v>
@@ -8777,10 +8765,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
-        <v>45636</v>
+        <v>45634</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>253</v>
+        <v>182</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>246</v>
@@ -8791,65 +8779,59 @@
       <c r="E3" s="37">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="F3" s="67">
-        <v>9.0277777777777776E-2</v>
-      </c>
+      <c r="F3" s="46"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="31">
-        <v>45649</v>
+        <v>45644</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>258</v>
+        <v>150</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="37">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F4" s="67">
-        <v>0.1388888888888889</v>
-      </c>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="46"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="35">
-        <v>45662</v>
+        <v>45663</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="47">
-        <v>1</v>
-      </c>
-      <c r="F5" s="69">
-        <v>0.1736111111111111</v>
-      </c>
+      <c r="E5" s="39">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="F5" s="66"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
-        <v>45664</v>
+        <v>45673</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>65</v>
@@ -8857,75 +8839,47 @@
       <c r="E6" s="45">
         <v>1</v>
       </c>
-      <c r="F6" s="68">
-        <v>0.21527777777777779</v>
-      </c>
+      <c r="F6" s="19"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="31">
-        <v>45668</v>
+        <v>45678</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>173</v>
+        <v>296</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>65</v>
       </c>
       <c r="E7" s="37">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F7" s="67">
-        <v>0.2638888888888889</v>
-      </c>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="F7" s="46"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="31">
-        <v>45673</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="E8" s="37">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F8" s="67">
-        <v>0.3125</v>
-      </c>
+      <c r="A8" s="25"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="35">
-        <v>45676</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="39">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F9" s="66">
-        <v>9</v>
-      </c>
+      <c r="A9" s="61"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
@@ -11131,323 +11085,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6315495-760E-4CF1-9392-387D44B709CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E831D29-B439-4785-8411-550CF15A707F}">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>45627</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="17">
-        <v>1</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="28">
-        <v>45634</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="37">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="31">
-        <v>45644</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="17">
-        <v>1</v>
-      </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35">
-        <v>45663</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="39">
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="F5" s="66"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>45673</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="45">
-        <v>1</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="31">
-        <v>45678</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="37">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="61"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E831D29-B439-4785-8411-550CF15A707F}">
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -11778,7 +11419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28445599-7D03-430D-862E-4CEF18E064A0}">
   <dimension ref="A1:H22"/>
   <sheetViews>
@@ -12006,6 +11647,368 @@
       </c>
       <c r="F10" s="68">
         <v>0.2638888888888889</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54552D2-B679-414E-8DE7-F4A9AF7C87BF}">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>45642</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="37">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="28">
+        <v>45650</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="37">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F3" s="41">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="31">
+        <v>45653</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="E4" s="37">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F4" s="41">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="35">
+        <v>45657</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5" s="39">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="F5" s="42">
+        <v>0.1736111111111111</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>45660</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="38">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="F6" s="34">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="31">
+        <v>45664</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="E7" s="37">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="F7" s="41">
+        <v>0.2361111111111111</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="31">
+        <v>45667</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="41">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35">
+        <v>45671</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="E9" s="39">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="F9" s="44">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>45677</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="45">
+        <v>1</v>
+      </c>
+      <c r="F10" s="34">
+        <v>9</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>

--- a/Student Sheet.xlsx
+++ b/Student Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\C# Repos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3BEF72-DD20-4642-B961-2F6A92AB1E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECA48A5-001C-476A-AAC0-F49D72BE8465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="845" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Almina Voloder" sheetId="48" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="298">
   <si>
     <t>Datum</t>
   </si>
@@ -951,6 +951,9 @@
   </si>
   <si>
     <t>Uto u 5:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snimao jan po novom templejtu </t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1418,25 +1421,16 @@
     <xf numFmtId="20" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1727,7 +1721,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1781,12 +1775,22 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
+      <c r="A3" s="28">
+        <v>45681</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="17">
+        <v>1</v>
+      </c>
+      <c r="F3" s="67"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
@@ -1795,27 +1799,27 @@
       <c r="B4" s="53"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="71"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="70"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="72"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="74"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="75"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="76"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="4"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1825,8 +1829,8 @@
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="71"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="70"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
@@ -1836,16 +1840,16 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="71"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="72"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="73"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="3"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -11088,7 +11092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E831D29-B439-4785-8411-550CF15A707F}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -11423,8 +11427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28445599-7D03-430D-862E-4CEF18E064A0}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11652,12 +11656,24 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="13"/>
+      <c r="A11" s="48">
+        <v>45682</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="17">
+        <v>2</v>
+      </c>
+      <c r="F11" s="67">
+        <v>0.34722222222222221</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
